--- a/assets/dataFiles/Five Days Tour Packages.xlsx
+++ b/assets/dataFiles/Five Days Tour Packages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\TourNest-master\assets\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7FCA7C-0073-4F79-A48F-F2D70358ED96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A6745F-9D13-4D8F-BC06-E462B64ED570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="13" activeTab="21" xr2:uid="{9328EC0B-BB53-479D-9E66-608EB9A25D20}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9328EC0B-BB53-479D-9E66-608EB9A25D20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="22" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="69">
   <si>
     <t>Five Days Tour Packages</t>
   </si>
@@ -341,6 +341,12 @@
 Day 3&lt;br&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; PROCEEDING TO MYSORE&lt;br&gt;
 Day 4&lt;br&gt;MYSORE PALACE, BRINDAVAN GARDENS, CHAMUNDI HILLS, MYSORE ZOO, LALITA MAHAL PALACE, RAIL MUSEUM, DATTA PEETHAM, KARANJI LAKE NATURE PARK, AND BACK TO HOTEL&lt;br&gt;
 Day 5&lt;br&gt;SRI RANGANATHA SWAMY TEMPLE,  TIPU SULTAN'S PALACE AND BACK TO COIMBATORE&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>MAZDA NON A/C</t>
+  </si>
+  <si>
+    <t>COACH NON A/C</t>
   </si>
 </sst>
 </file>
@@ -350,7 +356,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,6 +395,14 @@
     <font>
       <sz val="17"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -529,22 +543,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -577,6 +583,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -586,8 +595,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -607,8 +622,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -921,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251485AC-4683-4E1E-83EC-BC6F76972A20}">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -933,98 +950,99 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="26"/>
+    </row>
+    <row r="8" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="13" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1051,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EC9D77-7A71-457F-9338-C21A29807FB8}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,120 +1092,122 @@
       <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="5">
+        <v>22600</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="5">
+        <v>22600</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="5">
+        <v>22600</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9" t="s">
+      <c r="B7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="5">
+        <v>28000</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9" t="s">
+      <c r="B8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="5">
+        <v>31000</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="B9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="5">
+        <v>34750</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
-        <v>8</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13" t="s">
+      <c r="C10" s="9">
+        <v>36250</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1202,10 +1222,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C751BED4-CFE1-4E17-A0EE-71173D8A5776}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,120 +1245,122 @@
       <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="5">
+        <v>23100</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="5">
+        <v>23100</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="5">
+        <v>23100</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9" t="s">
+      <c r="B7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="5">
+        <v>29100</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9" t="s">
+      <c r="B8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="5">
+        <v>32100</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="B9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="5">
+        <v>35250</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
-        <v>8</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13" t="s">
+      <c r="C10" s="9">
+        <v>36750</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1353,10 +1375,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA298BDB-CE2B-417C-A2F1-73018776D91C}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,120 +1398,122 @@
       <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="5">
+        <v>22800</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="5">
+        <v>22800</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="5">
+        <v>22800</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9" t="s">
+      <c r="B7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="5">
+        <v>30000</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9" t="s">
+      <c r="B8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="5">
+        <v>31500</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="B9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="5">
+        <v>40000</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
-        <v>8</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13" t="s">
+      <c r="C10" s="9">
+        <v>41750</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1504,10 +1528,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBD8D3E-E301-4078-BA5D-97D8B2FC2F7F}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1527,120 +1551,122 @@
       <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="5">
+        <v>22400</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="5">
+        <v>22400</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="5">
+        <v>22400</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9" t="s">
+      <c r="B7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="5">
+        <v>29550</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9" t="s">
+      <c r="B8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="5">
+        <v>31050</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="B9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="5">
+        <v>39500</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
-        <v>8</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13" t="s">
+      <c r="C10" s="9">
+        <v>41250</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1655,10 +1681,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D549ECB9-7193-4D01-B598-91AAFC6A1966}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1678,120 +1704,122 @@
       <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="5">
+        <v>22350</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="5">
+        <v>22350</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="5">
+        <v>22350</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9" t="s">
+      <c r="B7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="5">
+        <v>29500</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9" t="s">
+      <c r="B8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="5">
+        <v>31000</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="B9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="5">
+        <v>39500</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
-        <v>8</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13" t="s">
+      <c r="C10" s="9">
+        <v>41250</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1809,7 +1837,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1829,120 +1857,136 @@
       <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="5">
+        <v>16350</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="5">
+        <v>16350</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="5">
+        <v>16350</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="5">
+        <v>21250</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="5">
+        <v>22150</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="5">
+        <v>29750</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9" t="s">
+      <c r="C10" s="5">
+        <v>31900</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="9">
+        <v>33100</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1960,7 +2004,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1980,120 +2024,136 @@
       <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="5">
+        <v>21725</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="5">
+        <v>21725</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="5">
+        <v>21725</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="5">
+        <v>28375</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="5">
+        <v>28375</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="5">
+        <v>37250</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9" t="s">
+      <c r="C10" s="5">
+        <v>40275</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="9">
+        <v>41900</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2111,7 +2171,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2131,120 +2191,136 @@
       <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="5">
+        <v>16750</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="5">
+        <v>16750</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="5">
+        <v>16750</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="5">
+        <v>21750</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="5">
+        <v>21750</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="5">
+        <v>29500</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9" t="s">
+      <c r="C10" s="5">
+        <v>31000</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="9">
+        <v>32250</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2262,7 +2338,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2282,120 +2358,136 @@
       <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="5">
+        <v>17350</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="5">
+        <v>17350</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="5">
+        <v>17350</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="5">
+        <v>22450</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="5">
+        <v>22450</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="5">
+        <v>30350</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9" t="s">
+      <c r="C10" s="5">
+        <v>31900</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="9">
+        <v>33200</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2413,7 +2505,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2433,120 +2525,136 @@
       <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="5">
+        <v>21950</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="5">
+        <v>21950</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="5">
+        <v>21950</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="5">
+        <v>28750</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="5">
+        <v>28750</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="5">
+        <v>37850</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9" t="s">
+      <c r="C10" s="5">
+        <v>40550</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="9">
+        <v>42250</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2576,144 +2684,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="5">
         <v>24200</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="5">
         <v>24200</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="5">
         <v>24200</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="5">
         <v>31300</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="5">
         <v>31300</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="5">
         <v>40850</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="5">
         <v>44050</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="9">
         <v>45900</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2732,7 +2840,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2752,120 +2860,136 @@
       <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="5">
+        <v>23900</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="5">
+        <v>23900</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="5">
+        <v>23900</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="5">
+        <v>31100</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="5">
+        <v>31100</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="5">
+        <v>40650</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9" t="s">
+      <c r="C10" s="5">
+        <v>43950</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="9">
+        <v>45800</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2883,7 +3007,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2903,120 +3027,136 @@
       <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="5">
+        <v>25300</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="5">
+        <v>25300</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="5">
+        <v>25300</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="5">
+        <v>32600</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="5">
+        <v>32600</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="5">
+        <v>42450</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9" t="s">
+      <c r="C10" s="5">
+        <v>45750</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="9">
+        <v>47700</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3033,8 +3173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BA4AC1-66D9-456E-83CA-2AD2F25EAAB4}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3054,120 +3194,136 @@
       <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="5">
+        <v>16350</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="5">
+        <v>16350</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="5">
+        <v>16350</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="5">
+        <v>21250</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="5">
+        <v>22150</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="5">
+        <v>29750</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9" t="s">
+      <c r="C10" s="5">
+        <v>31900</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="9">
+        <v>33100</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3182,10 +3338,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A16D7E6-ADD4-4BC2-B83E-220327363DB9}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A4" sqref="A4:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3197,128 +3353,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="5">
+        <v>22500</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="5">
+        <v>22500</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="5">
+        <v>22500</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9" t="s">
+      <c r="B7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="5">
+        <v>27900</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9" t="s">
+      <c r="B8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="5">
+        <v>30900</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="B9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="5">
+        <v>34950</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
-        <v>8</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13" t="s">
+      <c r="C10" s="9">
+        <v>36150</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3333,10 +3491,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4182FD0D-E229-43A8-A3F8-8081C2DD6039}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3348,128 +3506,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="5">
+        <v>22600</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="5">
+        <v>22600</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="5">
+        <v>22600</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9" t="s">
+      <c r="B7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="5">
+        <v>28000</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9" t="s">
+      <c r="B8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="5">
+        <v>31000</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="B9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="5">
+        <v>34250</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
-        <v>8</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13" t="s">
+      <c r="C10" s="9">
+        <v>35750</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3499,144 +3659,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="5">
         <v>23900</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="5">
         <v>23900</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="5">
         <v>23900</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="5">
         <v>30950</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="5">
         <v>30950</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="5">
         <v>40500</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="5">
         <v>44050</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="9">
         <v>45900</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3651,10 +3811,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCECF36B-97DF-4834-A549-D80FBA5C97FD}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3674,120 +3834,164 @@
       <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="5">
+        <v>17600</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="5">
+        <v>17600</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="5">
+        <v>17600</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="5">
+        <v>22800</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="5">
+        <v>22800</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="5">
+        <v>30850</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="C10" s="5">
+        <v>31800</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="5">
+        <v>33150</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="5">
+        <v>36850</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="5">
+        <v>36850</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3805,7 +4009,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3825,120 +4029,136 @@
       <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="5">
+        <v>19900</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="5">
+        <v>19900</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="5">
+        <v>19900</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="5">
+        <v>25500</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="5">
+        <v>25500</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="5">
+        <v>34150</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9" t="s">
+      <c r="C10" s="5">
+        <v>35350</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="9">
+        <v>36900</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3957,7 +4177,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3977,136 +4197,136 @@
       <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="5">
         <v>17900</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="5">
         <v>17900</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="5">
         <v>17900</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="5">
         <v>23100</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="5">
         <v>23100</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="5">
         <v>31150</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="5">
         <v>32800</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="9">
         <v>34150</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4121,10 +4341,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ACE3E53-5F7E-4B59-B513-391E970105F7}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4144,120 +4364,122 @@
       <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="5">
+        <v>22500</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="5">
+        <v>22500</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="5">
+        <v>22500</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9" t="s">
+      <c r="B7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="5">
+        <v>27900</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9" t="s">
+      <c r="B8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="5">
+        <v>30900</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="B9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="5">
+        <v>34650</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
-        <v>8</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13" t="s">
+      <c r="C10" s="9">
+        <v>36150</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>3</v>
       </c>
     </row>

--- a/assets/dataFiles/Five Days Tour Packages.xlsx
+++ b/assets/dataFiles/Five Days Tour Packages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\TourNest-master\assets\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A6745F-9D13-4D8F-BC06-E462B64ED570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B6D9F3-18BD-49D1-B0B8-5A51DCC51427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9328EC0B-BB53-479D-9E66-608EB9A25D20}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="6" xr2:uid="{9328EC0B-BB53-479D-9E66-608EB9A25D20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="22" r:id="rId1"/>
@@ -157,13 +157,6 @@
     <t>MYSORE - OOTY - COONOOR - AVALANCHI - MUDUMALAI - MYSORE</t>
   </si>
   <si>
-    <t>Day 1&lt;br&gt;COIMBATORE TO COONOOR MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, WAX MUSEUM, KETTI VALLEY VIEW, NILGIRI MOUNTAIN RAILWAY AND TO OOTY&lt;br&gt;
-Day 2&lt;br&gt;OOTY CENTENARY ROSE GARDEN, LAKE (BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN. PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODAY SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), AND BACK TO HOTEL&lt;br&gt;
-Day 3&lt;br&gt;OOTY TO  MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp;  TO MYSORE LOCAL SIGHTSEEING, MYSORE PALACE, BRINDAVAN GARDENS, CHAMUNDI HILLS, MYSORE ZOO, AND PROCEEDING TO COORG&lt;br&gt;
-Day 4&lt;br&gt;COORG LOCAL SIGHTSEEING, ABBI FALLS, BRAHMAGIRI PEAK, IRUPPU FALLS, KAVERI NISARGADHAMA, MADIKERI FORT, TALAKAVERI.AND BACK TO HOTEL&lt;br&gt;
-Day 5&lt;br&gt;LOCAL SIGHTSEEING AND PROCEEDING TO BANGALORE CITY OR AIRPORT DROP&lt;br&gt;</t>
-  </si>
-  <si>
     <t>S.No</t>
   </si>
   <si>
@@ -195,41 +188,6 @@
   </si>
   <si>
     <t xml:space="preserve">TRAVELLER A/C </t>
-  </si>
-  <si>
-    <t>Day 1&lt;br&gt;FROM MYSORE TO OOTY , BOTANICAL GARDEN, OOTY LAKE ( BOAT HOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN&lt;br&gt;
-Day 2&lt;br&gt;NILGIRI MOUNTAIN RAILWAY.KETTI VALLEY VIEW, SIMS PARK, DOLPHIN'S NOSE, LAMB'S ROCK,  WAX MUSEUM &amp; BACK TO OOTY&lt;br&gt;
-Day 3&lt;br&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), &amp; BACK TO OOTY&lt;br&gt;
-Day 4&lt;br&gt;OOTY TO AVALANCHE, TRIBAL MUSEUM, EMERALD LAKE AND BACK TO OOTY&lt;br&gt;
-Day 5&lt;br&gt;AFTER CHECKOUT THE HOTEL , OOTY TO MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING AND PROCEEDING TO MYSORE&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>Day 1&lt;br&gt;FROM MYSORE TO OOTY, ON THE WAY MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING, PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODAY SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), TO OOTY&lt;br&gt;
-Day 2&lt;br&gt;OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;br&gt;
-Day 3&lt;br&gt;OOTY TO  COONOOR NILGIRI MOUNTAIN RAILWAY. KETTI VALLEY VIEW, SIMS PARK, DOLPHIN'S NOSE, LAMB'S ROCK &amp; TO KODAIKANAL&lt;br&gt;
-Day 4&lt;br&gt;KODAIKANAL LAKE, COAKER'S WALK, PILLAR ROCKS, BRYANT PARK, GREEN VALLEY VIEW, KURINJI ANDAVAR TEMPLE, SILVER CASCADE FALLS, GUNA CAVE, BERIJAM LAKE IS ABOUT 20 - 25 KMS FROM KODAIKANAL INSIDE FOREST AREA, DOLPHIN'S NOSE, BEAR SHOLA FALLS, SHENBAGANUR MUSEUM&lt;br&gt;
-Day 5&lt;br&gt;LOCAL SIGHTSEEING AND BACK TO COIMBATORE / MYSORE DROP&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>Day 1&lt;br&gt;MYSORE TO OOTY , MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING, PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODAY SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING),  &amp; TO OOTY&lt;br&gt;
-Day 2&lt;br&gt;OOTY LOCAL SIGHTSEEING CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;br&gt;
-Day 3&lt;br&gt;OOTY TO MUNNAR, ON THE WAY COONOOR LOCAL SIGHTSEEING KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK AND PROCEEDING TO MUNNAR&lt;br&gt;
-Day 4&lt;br&gt;MUNNAR &amp; LOCAL SIGHTSEEING CHINNAR WILDLIFE SANCTUARY, RAJAMALAI WILDLIFE SANCTUARY, POWER HOUSE FALLS, ECHO POINT, ELEPHANT LAKE, ROSE GARDEN, MATTUPETTY DAM, TOP STATION, TATA TEA MUSEUM
-Day 5&lt;br&gt;MUNNAR LOCAL SIGHTSEEING &amp; BACK TO COIMBATORE&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>Day 1&lt;br&gt;COIMBATORE TO OOTY , OOTY LOCAL SIGHTSEEING CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;br&gt;
-Day 2&lt;br&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; BACK TO OOTY&lt;br&gt;
-Day 3&lt;br&gt;OOTY TO KODAIKANAL, ON THE WAY COONOOR LOCAL SIGHTSEEING KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK AND PROCEEDING TO KODAIKANAL&lt;br&gt;
-Day 4&lt;br&gt;KODAIKANAL LOCAL SIGHTSEEING KODAIKANAL LAKE, COAKER'S WALK, PILLAR ROCKS, BRYANT PARK, GREEN VALLEY VIEW, GUNA CAVE, BERIJAM LAKE IS ABOUT 20 - 25 KMS FROM KODAIKANAL INSIDE FOREST AREA, DOLPHIN'S NOSE, BEAR SHOLA FALLS,  &amp; BACK TO HOTEL&lt;br&gt;
-Day 5&lt;br&gt;KURINJI ANDAVAR TEMPLE, SHENBAGANUR MUSEUM. SILVER CASCADE FALLS &amp; BACK TO COIMBATORE&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>Day 1&lt;br&gt;COIMBATORE TO OOTY , OOTY LOCAL SIGHTSEEING CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;br&gt;
-Day 2&lt;br&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; BACK TO OOTY&lt;br&gt;
-Day 3&lt;br&gt;OOTY TO KODAIKANAL, ON THE WAY COONOOR LOCAL SIGHTSEEING KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, TEA GARDENS, SIMS PARK AND PROCEEDING TO KODAIKANAL&lt;br&gt;
-Day 4&lt;br&gt;OOTY TO KODAIKANAL, ON THE WAY COONOOR LOCAL SIGHTSEEING KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, TEA GARDENS, SIMS PARK AND PROCEEDING TO KODAIKANAL&lt;br&gt;
-Day 5&lt;br&gt;KODAIKANAL TO MADURAI &amp; LOCAL SIGHTSEEING - SREE MEENAKSHI TEMPLE, THIRUMALAI NAYAK PALACE, GANDHI MUSEUM &amp; FINAL DROP AT MADURAI / COIMBATORE&lt;br&gt;</t>
   </si>
   <si>
     <t>Day 1&lt;br&gt;COIMBATORE TO OOTY , OOTY LOCAL SIGHTSEEING CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;br&gt;
@@ -347,6 +305,138 @@
   </si>
   <si>
     <t>COACH NON A/C</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;COIMBATORE TO COONOOR MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, WAX MUSEUM, KETTI VALLEY VIEW, NILGIRI MOUNTAIN RAILWAY AND TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;&gt;OOTY CENTENARY ROSE GARDEN, LAKE (BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN. PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODAY SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), AND BACK TO HOTEL&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;OOTY TO  MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp;  TO MYSORE LOCAL SIGHTSEEING, MYSORE PALACE, BRINDAVAN GARDENS, CHAMUNDI HILLS, MYSORE ZOO, AND PROCEEDING TO COORG&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;COORG LOCAL SIGHTSEEING, ABBI FALLS, BRAHMAGIRI PEAK, IRUPPU FALLS, KAVERI NISARGADHAMA, MADIKERI FORT, TALAKAVERI AND BACK TO HOTEL&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;LOCAL SIGHTSEEING AND PROCEEDING TO BANGALORE CITY OR AIRPORT DROP&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;FROM MYSORE TO OOTY, ON THE WAY MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING, PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODAY SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;OOTY TO  COONOOR NILGIRI MOUNTAIN RAILWAY. KETTI VALLEY VIEW, SIMS PARK, DOLPHIN'S NOSE, LAMB'S ROCK &amp; TO KODAIKANAL&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;KODAIKANAL LAKE, COAKER'S WALK, PILLAR ROCKS, BRYANT PARK, GREEN VALLEY VIEW, KURINJI ANDAVAR TEMPLE, SILVER CASCADE FALLS, GUNA CAVE, BERIJAM LAKE IS ABOUT 20 - 25 KMS FROM KODAIKANAL INSIDE FOREST AREA, DOLPHIN'S NOSE, BEAR SHOLA FALLS, SHENBAGANUR MUSEUM&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;LOCAL SIGHTSEEING AND BACK TO COIMBATORE / MYSORE DROP&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;FROM MYSORE TO OOTY , BOTANICAL GARDEN, OOTY LAKE ( BOAT HOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;NILGIRI MOUNTAIN RAILWAY.KETTI VALLEY VIEW, SIMS PARK, DOLPHIN'S NOSE, LAMB'S ROCK,  WAX MUSEUM &amp; BACK TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), &amp; BACK TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;OOTY TO AVALANCHI, TRIBAL MUSEUM, EMERALD LAKE AND BACK TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;AFTER CHECKOUT THE HOTEL , OOTY TO MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING AND PROCEEDING TO MYSORE&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;MYSORE TO OOTY , MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING, PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODAY SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING),  &amp; TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;OOTY LOCAL SIGHTSEEING CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;OOTY TO MUNNAR, ON THE WAY COONOOR LOCAL SIGHTSEEING KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK AND PROCEEDING TO MUNNAR&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;MUNNAR &amp; LOCAL SIGHTSEEING CHINNAR WILDLIFE SANCTUARY, RAJAMALAI WILDLIFE SANCTUARY, POWER HOUSE FALLS, ECHO POINT, ELEPHANT LAKE, ROSE GARDEN, MATTUPETTY DAM, TOP STATION, TATA TEA MUSEUM&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;MUNNAR LOCAL SIGHTSEEING &amp; BACK TO COIMBATORE&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;COIMBATORE TO OOTY , OOTY LOCAL SIGHTSEEING CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; BACK TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;OOTY TO KODAIKANAL, ON THE WAY COONOOR LOCAL SIGHTSEEING KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK AND PROCEEDING TO KODAIKANAL&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;KODAIKANAL LOCAL SIGHTSEEING KODAIKANAL LAKE, COAKER'S WALK, PILLAR ROCKS, BRYANT PARK, GREEN VALLEY VIEW, GUNA CAVE, BERIJAM LAKE IS ABOUT 20 - 25 KMS FROM KODAIKANAL INSIDE FOREST AREA, DOLPHIN'S NOSE, BEAR SHOLA FALLS,  &amp; BACK TO HOTEL&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;KURINJI ANDAVAR TEMPLE, SHENBAGANUR MUSEUM. SILVER CASCADE FALLS &amp; BACK TO COIMBATORE&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;COIMBATORE TO OOTY , OOTY LOCAL SIGHTSEEING CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; BACK TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;OOTY TO KODAIKANAL, ON THE WAY COONOOR LOCAL SIGHTSEEING KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, TEA GARDENS, SIMS PARK AND PROCEEDING TO KODAIKANAL&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;Kodaikanal local sightseeing Kodaikanal Lake, Coaker's Walk, Pillar Rocks, Bryant Park, Green Valley View, Guna Cave, Dolphin's Nose, Kurinji Andavar Temple, Shenbaganur Museum. Silver Cascade Falls &amp; back to Hotel.&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;KODAIKANAL TO MADURAI &amp; LOCAL SIGHTSEEING - SREE MEENAKSHI TEMPLE, THIRUMALAI NAYAK PALACE, GANDHI MUSEUM &amp; FINAL DROP AT MADURAI / COIMBATORE&lt;/p&gt;
+&lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -586,6 +676,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -622,7 +713,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -940,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251485AC-4683-4E1E-83EC-BC6F76972A20}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -984,7 +1074,7 @@
       <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="26"/>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1084,30 +1174,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
+      <c r="A2" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>2</v>
@@ -1118,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="5">
         <v>22600</v>
@@ -1132,7 +1222,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5">
         <v>22600</v>
@@ -1146,7 +1236,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="5">
         <v>22600</v>
@@ -1160,7 +1250,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="5">
         <v>28000</v>
@@ -1174,7 +1264,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="5">
         <v>31000</v>
@@ -1188,7 +1278,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="5">
         <v>34750</v>
@@ -1202,7 +1292,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="9">
         <v>36250</v>
@@ -1237,30 +1327,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
+      <c r="A2" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>2</v>
@@ -1271,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="5">
         <v>23100</v>
@@ -1285,7 +1375,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5">
         <v>23100</v>
@@ -1299,7 +1389,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="5">
         <v>23100</v>
@@ -1313,7 +1403,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="5">
         <v>29100</v>
@@ -1327,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="5">
         <v>32100</v>
@@ -1341,7 +1431,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="5">
         <v>35250</v>
@@ -1355,7 +1445,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="9">
         <v>36750</v>
@@ -1390,30 +1480,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
+      <c r="A2" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>2</v>
@@ -1424,7 +1514,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="5">
         <v>22800</v>
@@ -1438,7 +1528,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5">
         <v>22800</v>
@@ -1452,7 +1542,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="5">
         <v>22800</v>
@@ -1466,7 +1556,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="5">
         <v>30000</v>
@@ -1480,7 +1570,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="5">
         <v>31500</v>
@@ -1494,7 +1584,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="5">
         <v>40000</v>
@@ -1508,7 +1598,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="9">
         <v>41750</v>
@@ -1543,30 +1633,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
+      <c r="A2" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>2</v>
@@ -1577,7 +1667,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="5">
         <v>22400</v>
@@ -1591,7 +1681,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5">
         <v>22400</v>
@@ -1605,7 +1695,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="5">
         <v>22400</v>
@@ -1619,7 +1709,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="5">
         <v>29550</v>
@@ -1633,7 +1723,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="5">
         <v>31050</v>
@@ -1647,7 +1737,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="5">
         <v>39500</v>
@@ -1661,7 +1751,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="9">
         <v>41250</v>
@@ -1696,30 +1786,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
+      <c r="A2" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>2</v>
@@ -1730,7 +1820,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="5">
         <v>22350</v>
@@ -1744,7 +1834,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5">
         <v>22350</v>
@@ -1758,7 +1848,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="5">
         <v>22350</v>
@@ -1772,7 +1862,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="5">
         <v>29500</v>
@@ -1786,7 +1876,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="5">
         <v>31000</v>
@@ -1800,7 +1890,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="5">
         <v>39500</v>
@@ -1814,7 +1904,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="9">
         <v>41250</v>
@@ -1849,30 +1939,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
+      <c r="A2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>2</v>
@@ -1883,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="5">
         <v>16350</v>
@@ -1897,7 +1987,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5">
         <v>16350</v>
@@ -1911,7 +2001,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="5">
         <v>16350</v>
@@ -1925,7 +2015,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="5">
         <v>21250</v>
@@ -1939,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="5">
         <v>22150</v>
@@ -1953,7 +2043,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="5">
         <v>29750</v>
@@ -1967,7 +2057,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="5">
         <v>31900</v>
@@ -1981,7 +2071,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="9">
         <v>33100</v>
@@ -2016,30 +2106,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
+      <c r="A1" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
+      <c r="A2" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>2</v>
@@ -2050,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="5">
         <v>21725</v>
@@ -2064,7 +2154,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5">
         <v>21725</v>
@@ -2078,7 +2168,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="5">
         <v>21725</v>
@@ -2092,7 +2182,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="5">
         <v>28375</v>
@@ -2106,7 +2196,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="5">
         <v>28375</v>
@@ -2120,7 +2210,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="5">
         <v>37250</v>
@@ -2134,7 +2224,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="5">
         <v>40275</v>
@@ -2148,7 +2238,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="9">
         <v>41900</v>
@@ -2183,30 +2273,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
+      <c r="A2" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>2</v>
@@ -2217,7 +2307,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="5">
         <v>16750</v>
@@ -2231,7 +2321,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5">
         <v>16750</v>
@@ -2245,7 +2335,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="5">
         <v>16750</v>
@@ -2259,7 +2349,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="5">
         <v>21750</v>
@@ -2273,7 +2363,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="5">
         <v>21750</v>
@@ -2287,7 +2377,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="5">
         <v>29500</v>
@@ -2301,7 +2391,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="5">
         <v>31000</v>
@@ -2315,7 +2405,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="9">
         <v>32250</v>
@@ -2350,30 +2440,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
+      <c r="A1" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
+      <c r="A2" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>2</v>
@@ -2384,7 +2474,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="5">
         <v>17350</v>
@@ -2398,7 +2488,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5">
         <v>17350</v>
@@ -2412,7 +2502,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="5">
         <v>17350</v>
@@ -2426,7 +2516,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="5">
         <v>22450</v>
@@ -2440,7 +2530,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="5">
         <v>22450</v>
@@ -2454,7 +2544,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="5">
         <v>30350</v>
@@ -2468,7 +2558,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="5">
         <v>31900</v>
@@ -2482,7 +2572,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="9">
         <v>33200</v>
@@ -2517,30 +2607,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
+      <c r="A2" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>2</v>
@@ -2551,7 +2641,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="5">
         <v>21950</v>
@@ -2565,7 +2655,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5">
         <v>21950</v>
@@ -2579,7 +2669,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="5">
         <v>21950</v>
@@ -2593,7 +2683,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="5">
         <v>28750</v>
@@ -2607,7 +2697,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="5">
         <v>28750</v>
@@ -2621,7 +2711,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="5">
         <v>37850</v>
@@ -2635,7 +2725,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="5">
         <v>40550</v>
@@ -2649,7 +2739,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="9">
         <v>42250</v>
@@ -2672,7 +2762,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2684,30 +2774,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
+      <c r="A2" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>2</v>
@@ -2718,7 +2808,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="5">
         <v>24200</v>
@@ -2732,7 +2822,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5">
         <v>24200</v>
@@ -2746,7 +2836,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="5">
         <v>24200</v>
@@ -2760,7 +2850,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="5">
         <v>31300</v>
@@ -2774,7 +2864,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="5">
         <v>31300</v>
@@ -2788,7 +2878,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="5">
         <v>40850</v>
@@ -2802,7 +2892,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="5">
         <v>44050</v>
@@ -2816,7 +2906,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="9">
         <v>45900</v>
@@ -2852,30 +2942,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
+      <c r="A2" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>2</v>
@@ -2886,7 +2976,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="5">
         <v>23900</v>
@@ -2900,7 +2990,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5">
         <v>23900</v>
@@ -2914,7 +3004,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="5">
         <v>23900</v>
@@ -2928,7 +3018,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="5">
         <v>31100</v>
@@ -2942,7 +3032,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="5">
         <v>31100</v>
@@ -2956,7 +3046,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="5">
         <v>40650</v>
@@ -2970,7 +3060,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="5">
         <v>43950</v>
@@ -2984,7 +3074,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="9">
         <v>45800</v>
@@ -3019,30 +3109,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
+      <c r="A2" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>2</v>
@@ -3053,7 +3143,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="5">
         <v>25300</v>
@@ -3067,7 +3157,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5">
         <v>25300</v>
@@ -3081,7 +3171,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="5">
         <v>25300</v>
@@ -3095,7 +3185,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="5">
         <v>32600</v>
@@ -3109,7 +3199,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="5">
         <v>32600</v>
@@ -3123,7 +3213,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="5">
         <v>42450</v>
@@ -3137,7 +3227,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="5">
         <v>45750</v>
@@ -3151,7 +3241,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="9">
         <v>47700</v>
@@ -3186,30 +3276,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
+      <c r="A2" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>2</v>
@@ -3220,7 +3310,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="5">
         <v>16350</v>
@@ -3234,7 +3324,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5">
         <v>16350</v>
@@ -3248,7 +3338,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="5">
         <v>16350</v>
@@ -3262,7 +3352,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="5">
         <v>21250</v>
@@ -3276,7 +3366,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="5">
         <v>22150</v>
@@ -3290,7 +3380,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="5">
         <v>29750</v>
@@ -3304,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="5">
         <v>31900</v>
@@ -3318,7 +3408,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="9">
         <v>33100</v>
@@ -3341,7 +3431,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A10"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3353,30 +3443,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
+      <c r="A2" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>2</v>
@@ -3387,7 +3477,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="5">
         <v>22500</v>
@@ -3401,7 +3491,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5">
         <v>22500</v>
@@ -3415,7 +3505,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="5">
         <v>22500</v>
@@ -3429,7 +3519,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="5">
         <v>27900</v>
@@ -3443,7 +3533,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="5">
         <v>30900</v>
@@ -3457,7 +3547,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="5">
         <v>34950</v>
@@ -3471,7 +3561,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="9">
         <v>36150</v>
@@ -3494,7 +3584,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3506,30 +3596,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
+      <c r="A2" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>2</v>
@@ -3540,7 +3630,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="5">
         <v>22600</v>
@@ -3554,7 +3644,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5">
         <v>22600</v>
@@ -3568,7 +3658,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="5">
         <v>22600</v>
@@ -3582,7 +3672,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="5">
         <v>28000</v>
@@ -3596,7 +3686,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="5">
         <v>31000</v>
@@ -3610,7 +3700,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="5">
         <v>34250</v>
@@ -3624,7 +3714,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="9">
         <v>35750</v>
@@ -3647,7 +3737,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3659,30 +3749,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
+      <c r="A2" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>2</v>
@@ -3693,7 +3783,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="5">
         <v>23900</v>
@@ -3707,7 +3797,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5">
         <v>23900</v>
@@ -3721,7 +3811,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="5">
         <v>23900</v>
@@ -3735,7 +3825,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="5">
         <v>30950</v>
@@ -3749,7 +3839,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="5">
         <v>30950</v>
@@ -3763,7 +3853,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="5">
         <v>40500</v>
@@ -3777,7 +3867,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="5">
         <v>44050</v>
@@ -3791,7 +3881,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="9">
         <v>45900</v>
@@ -3813,8 +3903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCECF36B-97DF-4834-A549-D80FBA5C97FD}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3826,30 +3916,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
+      <c r="A2" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>2</v>
@@ -3860,7 +3950,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="5">
         <v>17600</v>
@@ -3874,7 +3964,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5">
         <v>17600</v>
@@ -3888,7 +3978,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="5">
         <v>17600</v>
@@ -3902,7 +3992,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="5">
         <v>22800</v>
@@ -3916,7 +4006,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="5">
         <v>22800</v>
@@ -3930,7 +4020,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="5">
         <v>30850</v>
@@ -3944,7 +4034,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="5">
         <v>31800</v>
@@ -3958,7 +4048,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="5">
         <v>33150</v>
@@ -3972,7 +4062,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C12" s="5">
         <v>36850</v>
@@ -3986,7 +4076,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C13" s="5">
         <v>36850</v>
@@ -4008,8 +4098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8276B11-3F6C-40C2-BE6C-8AE33A94F2CC}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4021,30 +4111,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
+      <c r="A2" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>2</v>
@@ -4055,7 +4145,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="5">
         <v>19900</v>
@@ -4069,7 +4159,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5">
         <v>19900</v>
@@ -4083,7 +4173,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="5">
         <v>19900</v>
@@ -4097,7 +4187,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="5">
         <v>25500</v>
@@ -4111,7 +4201,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="5">
         <v>25500</v>
@@ -4125,7 +4215,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="5">
         <v>34150</v>
@@ -4139,7 +4229,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="5">
         <v>35350</v>
@@ -4153,7 +4243,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="9">
         <v>36900</v>
@@ -4189,30 +4279,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
+      <c r="A2" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>2</v>
@@ -4223,7 +4313,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="5">
         <v>17900</v>
@@ -4237,7 +4327,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5">
         <v>17900</v>
@@ -4251,7 +4341,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="5">
         <v>17900</v>
@@ -4265,7 +4355,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="5">
         <v>23100</v>
@@ -4279,7 +4369,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="5">
         <v>23100</v>
@@ -4293,7 +4383,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="5">
         <v>31150</v>
@@ -4307,7 +4397,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="5">
         <v>32800</v>
@@ -4321,7 +4411,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="9">
         <v>34150</v>
@@ -4356,30 +4446,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
+      <c r="A2" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>2</v>
@@ -4390,7 +4480,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="5">
         <v>22500</v>
@@ -4404,7 +4494,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5">
         <v>22500</v>
@@ -4418,7 +4508,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="5">
         <v>22500</v>
@@ -4432,7 +4522,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="5">
         <v>27900</v>
@@ -4446,7 +4536,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="5">
         <v>30900</v>
@@ -4460,7 +4550,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="5">
         <v>34650</v>
@@ -4474,7 +4564,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="9">
         <v>36150</v>

--- a/assets/dataFiles/Five Days Tour Packages.xlsx
+++ b/assets/dataFiles/Five Days Tour Packages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\TourNest-master\assets\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B6D9F3-18BD-49D1-B0B8-5A51DCC51427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C458930C-2E5C-4B68-A343-277E3A08381E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="6" xr2:uid="{9328EC0B-BB53-479D-9E66-608EB9A25D20}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="13" activeTab="21" xr2:uid="{9328EC0B-BB53-479D-9E66-608EB9A25D20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="22" r:id="rId1"/>
@@ -190,115 +190,10 @@
     <t xml:space="preserve">TRAVELLER A/C </t>
   </si>
   <si>
-    <t>Day 1&lt;br&gt;COIMBATORE TO OOTY , OOTY LOCAL SIGHTSEEING CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;br&gt;
-Day 2&lt;br&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; BACK TO OOTY&lt;br&gt;
-Day 3&lt;br&gt;OOTY TO MUNNAR, ON THE WAY COONOOR LOCAL SIGHTSEEING KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK AND PROCEEDING TO MUNNAR&lt;br&gt;
-Day 4&lt;br&gt;MUNNAR &amp; LOCAL SIGHTSEEING CHINNAR WILDLIFE SANCTUARY, RAJAMALAI WILDLIFE SANCTUARY, POWER HOUSE FALLS, ECHO POINT, ELEPHANT LAKE, ROSE GARDEN, MATTUPETTY DAM, TOP STATION, TATA TEA MUSEUM&lt;br&gt;
-Day 5&lt;br&gt;MUNNAR LOCAL SIGHTSEEING &amp; BACK TO COIMBATORE&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>Day 1&lt;br&gt;FROM MYSORE TO OOTY, ON THE WAY MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING, PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), TO OOTY&lt;br&gt;
-Day 2&lt;br&gt;OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;br&gt;
-Day 3&lt;br&gt;OOTY TO  COONOOR NILGIRI MOUNTAIN RAILWAY. KETTI VALLEY VIEW, SIMS PARK, DOLPHIN'S NOSE, LAMB'S ROCK &amp; TO COORG&lt;br&gt;
-Day 4&lt;br&gt;COORG LOCAL SIGHTSEEING - ABBI FALLS, BRAHMAGIRI PEAK, IRUPPU FALLS, KAVERI NISARGADHAMA, MADIKERI FORT, TALAKAVERI&lt;br&gt;
-Day 5&lt;br&gt;LOCAL SIGHTSEEING AND BACK TO MYSORE&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>Day 1&lt;br&gt;MYSORE TO OOTY, ON THE WAY  MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING, PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), AND TO OOTY&lt;br&gt;
-Day 2&lt;br&gt;OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN.COONOOR MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, WAX MUSEUM, KETTI VALLEY VIEW, NILGIRI MOUNTAIN RAILWAY AND TO OOTY&lt;br&gt;
-Day 3&lt;br&gt;OOTY TO MYSORE LOCAL SIGHTSEEING, MYSORE PALACE, BRINDAVAN GARDENS, CHAMUNDI HILLS, MYSORE ZOO, AND PROCEEDING TO COORG&lt;br&gt;
-Day 4&lt;br&gt;COORG LOCAL SIGHTSEEING, ABBI FALLS, BRAHMAGIRI PEAK, IRUPPU FALLS, KAVERI NISARGADHAMA, MADIKERI FORT, TALAKAVERI.AND BACK TO HOTEL&lt;br&gt;
-Day 5&lt;br&gt;LOCAL SIGHTSEEING AND PROCEEDING TO BANGALORE CITY OR AIRPORT DROP&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>Day 1&lt;br&gt;MYSORE TO OOTY, ON THE WAY  MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING,  OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM&lt;br&gt;
-Day 2&lt;br&gt;DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN.COONOOR MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEAGARDENS, SIMS PARK, WAX MUSEUM, KETTI VALLEY VIEW, NILGIRI MOUNTAIN RAILWAY AND TO OOTY&lt;br&gt;
-Day 3&lt;br&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), &amp; TO WAYANAD&lt;br&gt;
-Day 4&lt;br&gt;WAYANAD LOCAL SIGHTSEEING - ANANTHANATHA SWAMI TEMPLE, MUTHANGA WILDLIFE SANCTUARY, BANASURA DAM, BEGUR WILDLIFE SANCTUARY, CHEMBRA PEAK, EDAKKAL CAVES, MEENMUTTY FALLS, KANTHAPARA FALLS, SOOCHIPARA FALLS&lt;br&gt;
-Day 5&lt;br&gt;AFTER LOCAL SIGHT SEEING, WAYNAD TO CALICUT / MYSORE&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>Day 1&lt;br&gt;FROM BANGALORE TO OOTY ,  ON THE WAY MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING. AFTER CHECK IN THE HOTEL AND MOVE TO LOCAL SIGHSEEING (IF TIME PERMITS) LIKE BOTANICAL GARDEN, OOTY LAKE ( BOAT HOUSE). THREAD GARDEN, CHILDREN PARK, BOTANICAL GARDEN, NIGHT STAY IN OOTY HOTEL&lt;br&gt;
-Day 2&lt;br&gt;OOTY TO DODABETTA PEAK, TEA FACTORY,COONOOR LOCAL SIGHTSEEING - NILGIRI MOUNTAIN RAILWAY. KETTI VALLEY VIEW, SIMS PARK, DOLPHIN'S NOSE, LAMB'S ROCK,WAX MUSEUM &amp; BACK TO OOTY &amp; NIGHT STAY IN OOTY HOTEL&lt;br&gt;
-Day 3&lt;br&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING) AND PROCEED TO WAYANAD &amp;  ÏNIGHT STAY IN WAYANAD HOTEL&lt;br&gt;
-Day 4&lt;br&gt;WAYANAD LOCAL SIGHTSEEING - ANANTHANATHA SWAMI TEMPLE, MUTHANGA WILDLIFE SANCTUARY, BANASURA DAM, BEGUR WILDLIFE SANCTUARY, CHEMBRA PEAK, EDAKKAL CAVES, MEENMUTTY FALLS, KANTHAPARA FALLS, SOOCHIPARA FALLS&lt;br&gt;
-Day 5&lt;br&gt;AFTER LOCAL SIGHT SEEING, &amp; WAYNAD TO MYSORE / BANGALORE DROP&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>Day 1&lt;br&gt;BANGALORE TO MYSORE, LOCALSIGHTSEEING LIKE MYSORE PALACE, BRINDAVAN GARDENS, CHAMUNDI HILLS, MYSORE ZOO, LALITA MAHAL PALACE, RAIL MUSEUM, SRI RANGANATHA SWAMY TEMPLE, DATTA PEETHAM, KARANJI LAKE NATURE PARK, TIPU SULTAN'S PALACE. NIGHT STAY IN MYSORE&lt;br&gt;
-Day 2&lt;br&gt;FROM MYSORE TO OOTY, ON THE WAY  PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), TO OOTY&lt;br&gt;
-Day 3&lt;br&gt;OOTY TO  OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;br&gt;
-Day 4&lt;br&gt;OOTY TO KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, NILGIRI MOUNTAIN RAILWAY AND BACK TO OOTY&lt;br&gt;
-Day 5&lt;br&gt;OOTY TO MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING, AND PROCEED TO MYSORE / BANGALORE DROP&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>Day 1&lt;br&gt;FROM BANGALORE TO OOTY, ON THE WAY MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING, PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), TO OOTY&lt;br&gt;
-Day 2&lt;br&gt;OOTY TO  OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM, KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, NILGIRI MOUNTAIN RAILWAY AND BACK TO OOTY&lt;br&gt;
-Day 3&lt;br&gt;OOTY TO MYSORE LOCAL SIGHTSEEING, MYSORE PALACE, BRINDAVAN GARDENS, CHAMUNDI HILLS, MYSORE ZOO, AND PROCEEDING TO COORG&lt;br&gt;
-Day 4&lt;br&gt;COORG LOCAL SIGHTSEEING, ABBI FALLS, BRAHMAGIRI PEAK, IRUPPU FALLS, KAVERI NISARGADHAMA, MADIKERI FORT, TALAKAVERI.AND BACK TO HOTEL&lt;br&gt;
-Day 5&lt;br&gt;LOCAL SIGHTSEEING AND PROCEEDING TO BANGALORE CITY OR AIRPORT DROP&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>Day 1&lt;br&gt; FROM COIMBATORE TO OOTY , BOTANICAL GARDEN, OOTY LAKE ( BOAT HOUSE)&lt;br&gt;
-Day 2&lt;br&gt; THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;br&gt;
-Day 3&lt;br&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; BACK TO OOTY&lt;br&gt;
-Day 4&lt;br&gt;OOTY TO AVALANCHE, TRIBAL MUSEUM, EMERALD LAKE AND BACK TO OOTY&lt;br&gt;
-Day 5&lt;br&gt;NILGIRI MOUNTAIN RAILWAY.KETTI VALLEY VIEW, SIMS PARK, DOLPHIN'S NOSE, LAMB'S ROCK &amp; DROPPING TO COIMBATORE&lt;br&gt;</t>
-  </si>
-  <si>
     <t>COIMBATORE - OOTY - MYSORE - BANGALORE CITY (OR) AIRPORT DROP</t>
   </si>
   <si>
-    <t>Day 1&lt;br&gt;COIMBATORE TO COONOOR MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, WAX MUSEUM, KETTI VALLEY VIEW, NILGIRI MOUNTAIN RAILWAY AND TO OOTY&lt;br&gt;
-Day 2&lt;br&gt;OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN. AND BACK TO HOTEL&lt;br&gt;
-Day 3&lt;br&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; PROCEEDING TO MYSORE&lt;br&gt;
-Day 4&lt;br&gt;MYSORE PALACE, BRINDAVAN GARDENS, CHAMUNDI HILLS, MYSORE ZOO, LALITA MAHAL PALACE, RAIL MUSEUM, DATTA PEETHAM, KARANJI LAKE NATURE PARK, AND BACK TO HOTEL&lt;br&gt;
-Day 5&lt;br&gt;SRI RANGANATHA SWAMY TEMPLE,  TIPU SULTAN'S PALACE AND PROCEEDING TO BANGALORE LOCAL SIGHTSEEING AND BANGALORE CITY (OR) AIRPORT DROP&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>Day 1&lt;br&gt;FROM COIMBATORE TO OOTY , BOTANICAL GARDEN, OOTY LAKE ( BOAT HOUSE). THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;br&gt;
-Day 2&lt;br&gt;NILGIRI MOUNTAIN RAILWAY.KETTI VALLEY VIEW, SIMS PARK, DOLPHIN'S NOSE, LAMB'S ROCK &amp; BACK TO OOTY&lt;br&gt;
-Day 3&lt;br&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; TO WAYANAD&lt;br&gt;
-Day 4&lt;br&gt;WAYANAD LOCAL SIGHTSEEING - ANANTHANATHA SWAMI TEMPLE, MUTHANGA WILDLIFE SANCTUARY, BANASURA DAM, BEGUR WILDLIFE SANCTUARY, CHEMBRA PEAK, EDAKKAL CAVES, MEENMUTTY FALLS, KANTHAPARA FALLS, SOOCHIPARA FALLS&lt;br&gt;
-Day 5&lt;br&gt;AFTER LOCAL SIGHT SEEING, &amp; WAYNAD TO COIMBATORE DROP&lt;br&gt;</t>
-  </si>
-  <si>
     <t>COIMBATORE - OOTY - COONOOR - WAYANAD - CALICUT / COIMBATORE DROP</t>
-  </si>
-  <si>
-    <t>Day 1&lt;br&gt;FROM COIMBATORE TO OOTY , BOTANICAL GARDEN, OOTY LAKE ( BOAT HOUSE). THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;br&gt;
-Day 2&lt;br&gt;NILGIRI MOUNTAIN RAILWAY.KETTI VALLEY VIEW, SIMS PARK, DOLPHIN'S NOSE, LAMB'S ROCK &amp; BACK TO OOTY&lt;br&gt;
-Day 3&lt;br&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; TO WAYANAD&lt;br&gt;
-Day 4&lt;br&gt;WAYANAD LOCAL SIGHTSEEING - ANANTHANATHA SWAMI TEMPLE, MUTHANGA WILDLIFE SANCTUARY, BANASURA DAM, BEGUR WILDLIFE SANCTUARY, CHEMBRA PEAK, EDAKKAL CAVES, MEENMUTTY FALLS, KANTHAPARA FALLS, SOOCHIPARA FALLS
-Day 5&lt;br&gt;AFTER LOCAL SIGHT SEEING, WAYNAD TO CALICUT / COIMBATORE&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>Day 1&lt;br&gt;COIMBATORE TO KODAIKANAL, LOCAL SIGHTSEEING  KODAIKANAL LAKE,COAKER'S WALK,PILLAR ROCKS, BRYANT PARK, GREEN VALLEY VIEW, KURINJI ANDAVAR TEMPLE, SILVER CASCADE FALLS&lt;br&gt;
-Day 2&lt;br&gt;KODAIKANAL LOCAL SIGHTSEEING - GUNA CAVE,DOLPHIN'S NOS, SHENBAGANUR MUSEUMKODAIKANAL TO OOTY&lt;br&gt;
-Day 3&lt;br&gt;OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;br&gt;
-Day 4&lt;br&gt;OOTY TO MYSORE, ON THE WAY OOTY LOCAL SIGHTSEEING - KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; PROCEEDING TO MYSORE&lt;br&gt;
-Day 5&lt;br&gt;MYSORE PALACE, BRINDAVAN GARDENS, CHAMUNDI HILLS, MYSORE ZOO, LALITA MAHAL PALACE, AND AT MYSORE OR BACK TO COIMBATORE&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>Day 1&lt;br&gt;COIMBATORE TO MUNNAR, MUNNAR &amp; LOCAL SIGHTSEEING CHINNAR WILDLIFE SANCTUARY, RAJAMALAI WILDLIFE SANCTUARY, POWER HOUSE FALLS&lt;br&gt;
-Day 2&lt;br&gt;MUNNAR LOCAL SIGHTSEEING POTHAMEDU, ATHUKADU WATER  FALLS., KUNDALY, ECHO POINT, ELEPHANT LAKE, ROSE GARDEN, MATTUPETTY DAM, TOP STATION, TATA TEA MUSEUM&lt;br&gt;
-Day 3&lt;br&gt;MUNNAR TO OOTY, ON THE WAY COONOOR LOCAL SIGHTSEEING KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK AND PROCEEDING TO OOTY&lt;br&gt;
-Day 4&lt;br&gt;OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;br&gt;
-Day 5&lt;br&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING AND PROCEEDING TO MYSORE &amp; DROP&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>Day 1&lt;br&gt;BANGALORE TO MYSORE LOCAL SIGHTSEEING, MYSORE PALACE, BRINDAVAN GARDENS, CHAMUNDI HILLS, MYSORE ZOO, AND PROCEEDING TO COORG&lt;br&gt;
-Day 2&lt;br&gt;COORG LOCAL SIGHTSEEING, ABBI FALLS, BRAHMAGIRI PEAK, IRUPPU FALLS, KAVERI NISARGADHAMA, MADIKERI FORT, TALAKAVERI.AND BACK TO HOTEL&lt;br&gt;
-Day 3&lt;br&gt;FROM COORG TO OOTY, ON THE WAY MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING, PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), &amp; TO OOTY&lt;br&gt;
-Day 4&lt;br&gt;OOTY LOCAL SIGHTSEEING - OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN,  BACK TO OOTY&lt;br&gt;
-Day 5&lt;br&gt;WAX MUSEUM, KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, NILGIRI MOUNTAIN RAILWAY AND PROCEEDING TO COIMBATORE CITY OR AIRPORT DROP&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>Day 1&lt;br&gt;COIMBATORE TO COONOOR MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, WAX MUSEUM, KETTI VALLEY VIEW, NILGIRI MOUNTAIN RAILWAY AND TO OOTY&lt;br&gt;
-Day 2&lt;br&gt;OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN. AND BACK TO HOTEL&lt;br&gt;
-Day 3&lt;br&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; PROCEEDING TO MYSORE&lt;br&gt;
-Day 4&lt;br&gt;MYSORE PALACE, BRINDAVAN GARDENS, CHAMUNDI HILLS, MYSORE ZOO, LALITA MAHAL PALACE, RAIL MUSEUM, DATTA PEETHAM, KARANJI LAKE NATURE PARK, AND BACK TO HOTEL&lt;br&gt;
-Day 5&lt;br&gt;SRI RANGANATHA SWAMY TEMPLE,  TIPU SULTAN'S PALACE AND BACK TO COIMBATORE&lt;br&gt;</t>
   </si>
   <si>
     <t>MAZDA NON A/C</t>
@@ -436,6 +331,336 @@
 &lt;div&gt;
 &lt;h5&gt;Day 5&lt;/h5&gt;
 &lt;p&gt;KODAIKANAL TO MADURAI &amp; LOCAL SIGHTSEEING - SREE MEENAKSHI TEMPLE, THIRUMALAI NAYAK PALACE, GANDHI MUSEUM &amp; FINAL DROP AT MADURAI / COIMBATORE&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;COIMBATORE TO OOTY , OOTY LOCAL SIGHTSEEING CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; BACK TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;OOTY TO MUNNAR, ON THE WAY COONOOR LOCAL SIGHTSEEING KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK AND PROCEEDING TO MUNNAR&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;MUNNAR &amp; LOCAL SIGHTSEEING CHINNAR WILDLIFE SANCTUARY, RAJAMALAI WILDLIFE SANCTUARY, POWER HOUSE FALLS, ECHO POINT, ELEPHANT LAKE, ROSE GARDEN, MATTUPETTY DAM, TOP STATION, TATA TEA MUSEUM&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;MUNNAR LOCAL SIGHTSEEING &amp; BACK TO COIMBATORE&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;FROM MYSORE TO OOTY, ON THE WAY MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING, PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;OOTY TO  COONOOR NILGIRI MOUNTAIN RAILWAY. KETTI VALLEY VIEW, SIMS PARK, DOLPHIN'S NOSE, LAMB'S ROCK &amp; TO COORG&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;COORG LOCAL SIGHTSEEING - ABBI FALLS, BRAHMAGIRI PEAK, IRUPPU FALLS, KAVERI NISARGADHAMA, MADIKERI FORT, TALAKAVERI&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;LOCAL SIGHTSEEING AND BACK TO MYSORE&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;MYSORE TO OOTY, ON THE WAY  MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING, PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), AND TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN.COONOOR MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, WAX MUSEUM, KETTI VALLEY VIEW, NILGIRI MOUNTAIN RAILWAY AND TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;OOTY TO MYSORE LOCAL SIGHTSEEING, MYSORE PALACE, BRINDAVAN GARDENS, CHAMUNDI HILLS, MYSORE ZOO, AND PROCEEDING TO COORG&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;COORG LOCAL SIGHTSEEING, ABBI FALLS, BRAHMAGIRI PEAK, IRUPPU FALLS, KAVERI NISARGADHAMA, MADIKERI FORT, TALAKAVERI.AND BACK TO HOTEL&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;LOCAL SIGHTSEEING AND PROCEEDING TO BANGALORE CITY OR AIRPORT DROP&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;MYSORE TO OOTY, ON THE WAY  MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING,  OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN.COONOOR MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEAGARDENS, SIMS PARK, WAX MUSEUM, KETTI VALLEY VIEW, NILGIRIS MOUNTAIN RAILWAY AND TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), &amp; TO WAYANAD&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;WAYANAD LOCAL SIGHTSEEING - ANANTHANATHA SWAMI TEMPLE, MUTHANGA WILDLIFE SANCTUARY, BANASURA DAM, BEGUR WILDLIFE SANCTUARY, CHEMBRA PEAK, EDAKKAL CAVES, MEENMUTTY FALLS, KANTHAPARA FALLS, SOOCHIPARA FALLS&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;AFTER LOCAL SIGHT SEEING, WAYNAD TO CALICUT / MYSORE&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;FROM BANGALORE TO OOTY ,  ON THE WAY MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING. AFTER CHECK IN THE HOTEL AND MOVE TO LOCAL SIGHSEEING (IF TIME PERMITS) LIKE BOTANICAL GARDEN, OOTY LAKE ( BOAT HOUSE). THREAD GARDEN, CHILDREN PARK, BOTANICAL GARDEN, NIGHT STAY IN OOTY HOTEL&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;OOTY TO DODABETTA PEAK, TEA FACTORY, COONOOR LOCAL SIGHTSEEING - NILGIRI MOUNTAIN RAILWAY. KETTI VALLEY VIEW, SIMS PARK, DOLPHIN'S NOSE, LAMB'S ROCK,WAX MUSEUM &amp; BACK TO OOTY &amp; NIGHT STAY IN OOTY HOTEL&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING) AND PROCEED TO WAYANAD &amp; NIGHT STAY IN WAYANAD HOTEL&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;WAYANAD LOCAL SIGHTSEEING - ANANTHANATHA SWAMI TEMPLE, MUTHANGA WILDLIFE SANCTUARY, BANASURA DAM, BEGUR WILDLIFE SANCTUARY, CHEMBRA PEAK, EDAKKAL CAVES, MEENMUTTY FALLS, KANTHAPARA FALLS, SOOCHIPARA FALLS&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;AFTER LOCAL SIGHT SEEING, &amp; WAYNAD TO MYSORE / BANGALORE DROP&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;BANGALORE TO MYSORE, LOCALSIGHTSEEING LIKE MYSORE PALACE, BRINDAVAN GARDENS, CHAMUNDI HILLS, MYSORE ZOO, LALITA MAHAL PALACE, RAIL MUSEUM, SRI RANGANATHA SWAMY TEMPLE, DATTA PEETHAM, KARANJI LAKE NATURE PARK, TIPU SULTAN'S PALACE. NIGHT STAY IN MYSORE&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;FROM MYSORE TO OOTY, ON THE WAY  PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;OOTY TO  OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;OOTY TO KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, NILGIRI MOUNTAIN RAILWAY AND BACK TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;OOTY TO MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING, AND PROCEED TO MYSORE / BANGALORE DROP&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;FROM BANGALORE TO OOTY, ON THE WAY MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING, PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;OOTY TO  OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM, KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, NILGIRI MOUNTAIN RAILWAY AND BACK TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;OOTY TO MYSORE LOCAL SIGHTSEEING, MYSORE PALACE, BRINDAVAN GARDENS, CHAMUNDI HILLS, MYSORE ZOO, AND PROCEEDING TO COORG&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;COORG LOCAL SIGHTSEEING, ABBI FALLS, BRAHMAGIRI PEAK, IRUPPU FALLS, KAVERI NISARGADHAMA, MADIKERI FORT, TALAKAVERI.AND BACK TO HOTEL&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;LOCAL SIGHTSEEING AND PROCEEDING TO BANGALORE CITY OR AIRPORT DROP&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;FROM COIMBATORE TO OOTY , BOTANICAL GARDEN, OOTY LAKE ( BOAT HOUSE)&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; BACK TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;OOTY TO AVALANCHE, TRIBAL MUSEUM, EMERALD LAKE AND BACK TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;NILGIRI MOUNTAIN RAILWAY, KETTI VALLEY VIEW, SIMS PARK, DOLPHIN'S NOSE, LAMB'S ROCK &amp; DROPPING TO COIMBATORE&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;COIMBATORE TO COONOOR MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, WAX MUSEUM, KETTI VALLEY VIEW, NILGIRI MOUNTAIN RAILWAY AND TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN. AND BACK TO HOTEL&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; PROCEEDING TO MYSORE&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;MYSORE PALACE, BRINDAVAN GARDENS, CHAMUNDI HILLS, MYSORE ZOO, LALITA MAHAL PALACE, RAIL MUSEUM, DATTA PEETHAM, KARANJI LAKE NATURE PARK, AND BACK TO HOTEL&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;SRI RANGANATHA SWAMY TEMPLE,  TIPU SULTAN'S PALACE AND PROCEEDING TO BANGALORE LOCAL SIGHTSEEING AND BANGALORE CITY (OR) AIRPORT DROP&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;FROM COIMBATORE TO OOTY, BOTANICAL GARDEN, OOTY LAKE ( BOAT HOUSE). THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;NILGIRI MOUNTAIN RAILWAY. KETTI VALLEY VIEW, SIMS PARK, DOLPHIN'S NOSE, LAMB'S ROCK &amp; BACK TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; TO WAYANAD&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;WAYANAD LOCAL SIGHTSEEING - ANANTHANATHA SWAMI TEMPLE, MUTHANGA WILDLIFE SANCTUARY, BANASURA DAM, BEGUR WILDLIFE SANCTUARY, CHEMBRA PEAK, EDAKKAL CAVES, MEENMUTTY FALLS, KANTHAPARA FALLS, SOOCHIPARA FALLS&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;AFTER LOCAL SIGHT SEEING, &amp; WAYNAD TO COIMBATORE DROP&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;FROM COIMBATORE TO OOTY, BOTANICAL GARDEN, OOTY LAKE ( BOAT HOUSE). THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;NILGIRI MOUNTAIN RAILWAY.KETTI VALLEY VIEW, SIMS PARK, DOLPHIN'S NOSE, LAMB'S ROCK &amp; BACK TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; TO WAYANAD&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;WAYANAD LOCAL SIGHTSEEING - ANANTHANATHA SWAMI TEMPLE, MUTHANGA WILDLIFE SANCTUARY, BANASURA DAM, BEGUR WILDLIFE SANCTUARY, CHEMBRA PEAK, EDAKKAL CAVES, MEENMUTTY FALLS, KANTHAPARA FALLS, SOOCHIPARA FALLS&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;AFTER LOCAL SIGHT SEEING, WAYNAD TO CALICUT / COIMBATORE&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;COIMBATORE TO KODAIKANAL, LOCAL SIGHTSEEING  KODAIKANAL LAKE, COAKER'S WALK,PILLAR ROCKS, BRYANT PARK, GREEN VALLEY VIEW, KURINJI ANDAVAR TEMPLE, SILVER CASCADE FALLS&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;KODAIKANAL LOCAL SIGHTSEEING - GUNA CAVE,DOLPHIN'S NOS, SHENBAGANUR MUSEUM KODAIKANAL TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;OOTY TO MYSORE, ON THE WAY OOTY LOCAL SIGHTSEEING - KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; PROCEEDING TO MYSORE&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;MYSORE PALACE, BRINDAVAN GARDENS, CHAMUNDI HILLS, MYSORE ZOO, LALITA MAHAL PALACE, AND AT MYSORE OR BACK TO COIMBATORE&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;COIMBATORE TO MUNNAR, MUNNAR &amp; LOCAL SIGHTSEEING CHINNAR WILDLIFE SANCTUARY, RAJAMALAI WILDLIFE SANCTUARY, POWER HOUSE FALLS&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;MUNNAR LOCAL SIGHTSEEING POTHAMEDU, ATHUKADU WATER  FALLS., KUNDALY, ECHO POINT, ELEPHANT LAKE, ROSE GARDEN, MATTUPETTY DAM, TOP STATION, TATA TEA MUSEUM&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;MUNNAR TO OOTY, ON THE WAY COONOOR LOCAL SIGHTSEEING KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK AND PROCEEDING TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING AND PROCEEDING TO MYSORE &amp; DROP&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;BANGALORE TO MYSORE LOCAL SIGHTSEEING, MYSORE PALACE, BRINDAVAN GARDENS, CHAMUNDI HILLS, MYSORE ZOO, AND PROCEEDING TO COORG&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;COORG LOCAL SIGHTSEEING, ABBI FALLS, BRAHMAGIRI PEAK, IRUPPU FALLS, KAVERI NISARGADHAMA, MADIKERI FORT, TALAKAVERI.AND BACK TO HOTEL&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;FROM COORG TO OOTY, ON THE WAY MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING, PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), &amp; TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;OOTY LOCAL SIGHTSEEING - OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN,  BACK TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;WAX MUSEUM, KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, NILGIRI MOUNTAIN RAILWAY AND PROCEEDING TO COIMBATORE CITY OR AIRPORT DROP&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;COIMBATORE TO COONOOR MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, WAX MUSEUM, KETTI VALLEY VIEW, NILGIRI MOUNTAIN RAILWAY AND TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN. AND BACK TO HOTEL&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; PROCEEDING TO MYSORE&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;MYSORE PALACE, BRINDAVAN GARDENS, CHAMUNDI HILLS, MYSORE ZOO, LALITA MAHAL PALACE, RAIL MUSEUM, DATTA PEETHAM, KARANJI LAKE NATURE PARK, AND BACK TO HOTEL&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;SRI RANGANATHA SWAMY TEMPLE,  TIPU SULTAN'S PALACE AND BACK TO COIMBATORE&lt;/p&gt;
 &lt;/div&gt;</t>
   </si>
 </sst>
@@ -1162,7 +1387,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,7 +1408,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -1315,7 +1540,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1336,7 +1561,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -1468,7 +1693,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1489,7 +1714,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -1621,7 +1846,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1642,7 +1867,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -1774,7 +1999,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1795,7 +2020,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -1927,7 +2152,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1948,7 +2173,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -2094,7 +2319,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2107,7 +2332,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -2115,7 +2340,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -2261,7 +2486,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2282,7 +2507,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -2428,7 +2653,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2441,7 +2666,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -2449,7 +2674,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -2595,7 +2820,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2616,7 +2841,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -2783,7 +3008,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -2930,7 +3155,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2951,7 +3176,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -3097,7 +3322,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3118,7 +3343,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -3263,8 +3488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BA4AC1-66D9-456E-83CA-2AD2F25EAAB4}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3285,7 +3510,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -3452,7 +3677,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -3605,7 +3830,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -3758,7 +3983,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -3925,7 +4150,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -4062,7 +4287,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C12" s="5">
         <v>36850</v>
@@ -4076,7 +4301,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C13" s="5">
         <v>36850</v>
@@ -4098,8 +4323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8276B11-3F6C-40C2-BE6C-8AE33A94F2CC}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4120,7 +4345,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -4267,7 +4492,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4288,7 +4513,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -4434,7 +4659,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4455,7 +4680,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>

--- a/assets/dataFiles/Five Days Tour Packages.xlsx
+++ b/assets/dataFiles/Five Days Tour Packages.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\TourNest-master\assets\dataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anjankumar.bnv\Documents\myproject\ootytaxi\assets\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C458930C-2E5C-4B68-A343-277E3A08381E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D280AE-3C31-4FB6-B005-7B8644101D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="13" activeTab="21" xr2:uid="{9328EC0B-BB53-479D-9E66-608EB9A25D20}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{9328EC0B-BB53-479D-9E66-608EB9A25D20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="22" r:id="rId1"/>
@@ -48,7 +48,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -204,19 +203,173 @@
   <si>
     <t>&lt;div&gt;
 &lt;h5&gt;Day 1&lt;/h5&gt;
-&lt;p&gt;COIMBATORE TO COONOOR MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, WAX MUSEUM, KETTI VALLEY VIEW, NILGIRI MOUNTAIN RAILWAY AND TO OOTY&lt;/p&gt;
+&lt;p&gt;FROM MYSORE TO OOTY, ON THE WAY MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING, PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODAY SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), TO OOTY&lt;/p&gt;
 &lt;/div&gt;
 &lt;div&gt;
 &lt;h5&gt;Day 2&lt;/h5&gt;
-&lt;p&gt;&gt;OOTY CENTENARY ROSE GARDEN, LAKE (BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN. PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODAY SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), AND BACK TO HOTEL&lt;/p&gt;
+&lt;p&gt;OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;/p&gt;
 &lt;/div&gt;
 &lt;div&gt;
 &lt;h5&gt;Day 3&lt;/h5&gt;
-&lt;p&gt;OOTY TO  MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp;  TO MYSORE LOCAL SIGHTSEEING, MYSORE PALACE, BRINDAVAN GARDENS, CHAMUNDI HILLS, MYSORE ZOO, AND PROCEEDING TO COORG&lt;/p&gt;
+&lt;p&gt;OOTY TO  COONOOR NILGIRI MOUNTAIN RAILWAY. KETTI VALLEY VIEW, SIMS PARK, DOLPHIN'S NOSE, LAMB'S ROCK &amp; TO KODAIKANAL&lt;/p&gt;
 &lt;/div&gt;
 &lt;div&gt;
 &lt;h5&gt;Day 4&lt;/h5&gt;
-&lt;p&gt;COORG LOCAL SIGHTSEEING, ABBI FALLS, BRAHMAGIRI PEAK, IRUPPU FALLS, KAVERI NISARGADHAMA, MADIKERI FORT, TALAKAVERI AND BACK TO HOTEL&lt;/p&gt;
+&lt;p&gt;KODAIKANAL LAKE, COAKER'S WALK, PILLAR ROCKS, BRYANT PARK, GREEN VALLEY VIEW, KURINJI ANDAVAR TEMPLE, SILVER CASCADE FALLS, GUNA CAVE, BERIJAM LAKE IS ABOUT 20 - 25 KMS FROM KODAIKANAL INSIDE FOREST AREA, DOLPHIN'S NOSE, BEAR SHOLA FALLS, SHENBAGANUR MUSEUM&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;LOCAL SIGHTSEEING AND BACK TO COIMBATORE / MYSORE DROP&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;FROM MYSORE TO OOTY , BOTANICAL GARDEN, OOTY LAKE ( BOAT HOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;NILGIRI MOUNTAIN RAILWAY.KETTI VALLEY VIEW, SIMS PARK, DOLPHIN'S NOSE, LAMB'S ROCK,  WAX MUSEUM &amp; BACK TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), &amp; BACK TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;OOTY TO AVALANCHI, TRIBAL MUSEUM, EMERALD LAKE AND BACK TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;AFTER CHECKOUT THE HOTEL , OOTY TO MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING AND PROCEEDING TO MYSORE&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;MYSORE TO OOTY , MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING, PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODAY SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING),  &amp; TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;OOTY LOCAL SIGHTSEEING CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;OOTY TO MUNNAR, ON THE WAY COONOOR LOCAL SIGHTSEEING KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK AND PROCEEDING TO MUNNAR&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;MUNNAR &amp; LOCAL SIGHTSEEING CHINNAR WILDLIFE SANCTUARY, RAJAMALAI WILDLIFE SANCTUARY, POWER HOUSE FALLS, ECHO POINT, ELEPHANT LAKE, ROSE GARDEN, MATTUPETTY DAM, TOP STATION, TATA TEA MUSEUM&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;MUNNAR LOCAL SIGHTSEEING &amp; BACK TO COIMBATORE&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;COIMBATORE TO OOTY , OOTY LOCAL SIGHTSEEING CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; BACK TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;OOTY TO KODAIKANAL, ON THE WAY COONOOR LOCAL SIGHTSEEING KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK AND PROCEEDING TO KODAIKANAL&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;KODAIKANAL LOCAL SIGHTSEEING KODAIKANAL LAKE, COAKER'S WALK, PILLAR ROCKS, BRYANT PARK, GREEN VALLEY VIEW, GUNA CAVE, BERIJAM LAKE IS ABOUT 20 - 25 KMS FROM KODAIKANAL INSIDE FOREST AREA, DOLPHIN'S NOSE, BEAR SHOLA FALLS,  &amp; BACK TO HOTEL&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;KURINJI ANDAVAR TEMPLE, SHENBAGANUR MUSEUM. SILVER CASCADE FALLS &amp; BACK TO COIMBATORE&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;COIMBATORE TO OOTY , OOTY LOCAL SIGHTSEEING CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; BACK TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;OOTY TO KODAIKANAL, ON THE WAY COONOOR LOCAL SIGHTSEEING KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, TEA GARDENS, SIMS PARK AND PROCEEDING TO KODAIKANAL&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;Kodaikanal local sightseeing Kodaikanal Lake, Coaker's Walk, Pillar Rocks, Bryant Park, Green Valley View, Guna Cave, Dolphin's Nose, Kurinji Andavar Temple, Shenbaganur Museum. Silver Cascade Falls &amp; back to Hotel.&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;KODAIKANAL TO MADURAI &amp; LOCAL SIGHTSEEING - SREE MEENAKSHI TEMPLE, THIRUMALAI NAYAK PALACE, GANDHI MUSEUM &amp; FINAL DROP AT MADURAI / COIMBATORE&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;COIMBATORE TO OOTY , OOTY LOCAL SIGHTSEEING CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; BACK TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;OOTY TO MUNNAR, ON THE WAY COONOOR LOCAL SIGHTSEEING KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK AND PROCEEDING TO MUNNAR&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;MUNNAR &amp; LOCAL SIGHTSEEING CHINNAR WILDLIFE SANCTUARY, RAJAMALAI WILDLIFE SANCTUARY, POWER HOUSE FALLS, ECHO POINT, ELEPHANT LAKE, ROSE GARDEN, MATTUPETTY DAM, TOP STATION, TATA TEA MUSEUM&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;MUNNAR LOCAL SIGHTSEEING &amp; BACK TO COIMBATORE&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;FROM MYSORE TO OOTY, ON THE WAY MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING, PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;OOTY TO  COONOOR NILGIRI MOUNTAIN RAILWAY. KETTI VALLEY VIEW, SIMS PARK, DOLPHIN'S NOSE, LAMB'S ROCK &amp; TO COORG&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;COORG LOCAL SIGHTSEEING - ABBI FALLS, BRAHMAGIRI PEAK, IRUPPU FALLS, KAVERI NISARGADHAMA, MADIKERI FORT, TALAKAVERI&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;LOCAL SIGHTSEEING AND BACK TO MYSORE&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;MYSORE TO OOTY, ON THE WAY  MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING, PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), AND TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN.COONOOR MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, WAX MUSEUM, KETTI VALLEY VIEW, NILGIRI MOUNTAIN RAILWAY AND TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;OOTY TO MYSORE LOCAL SIGHTSEEING, MYSORE PALACE, BRINDAVAN GARDENS, CHAMUNDI HILLS, MYSORE ZOO, AND PROCEEDING TO COORG&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;COORG LOCAL SIGHTSEEING, ABBI FALLS, BRAHMAGIRI PEAK, IRUPPU FALLS, KAVERI NISARGADHAMA, MADIKERI FORT, TALAKAVERI.AND BACK TO HOTEL&lt;/p&gt;
 &lt;/div&gt;
 &lt;div&gt;
 &lt;h5&gt;Day 5&lt;/h5&gt;
@@ -226,169 +379,81 @@
   <si>
     <t>&lt;div&gt;
 &lt;h5&gt;Day 1&lt;/h5&gt;
-&lt;p&gt;FROM MYSORE TO OOTY, ON THE WAY MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING, PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODAY SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), TO OOTY&lt;/p&gt;
+&lt;p&gt;MYSORE TO OOTY, ON THE WAY  MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING,  OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM&lt;/p&gt;
 &lt;/div&gt;
 &lt;div&gt;
 &lt;h5&gt;Day 2&lt;/h5&gt;
-&lt;p&gt;OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;/p&gt;
+&lt;p&gt;DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN.COONOOR MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEAGARDENS, SIMS PARK, WAX MUSEUM, KETTI VALLEY VIEW, NILGIRIS MOUNTAIN RAILWAY AND TO OOTY&lt;/p&gt;
 &lt;/div&gt;
 &lt;div&gt;
 &lt;h5&gt;Day 3&lt;/h5&gt;
-&lt;p&gt;OOTY TO  COONOOR NILGIRI MOUNTAIN RAILWAY. KETTI VALLEY VIEW, SIMS PARK, DOLPHIN'S NOSE, LAMB'S ROCK &amp; TO KODAIKANAL&lt;/p&gt;
+&lt;p&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), &amp; TO WAYANAD&lt;/p&gt;
 &lt;/div&gt;
 &lt;div&gt;
 &lt;h5&gt;Day 4&lt;/h5&gt;
-&lt;p&gt;KODAIKANAL LAKE, COAKER'S WALK, PILLAR ROCKS, BRYANT PARK, GREEN VALLEY VIEW, KURINJI ANDAVAR TEMPLE, SILVER CASCADE FALLS, GUNA CAVE, BERIJAM LAKE IS ABOUT 20 - 25 KMS FROM KODAIKANAL INSIDE FOREST AREA, DOLPHIN'S NOSE, BEAR SHOLA FALLS, SHENBAGANUR MUSEUM&lt;/p&gt;
+&lt;p&gt;WAYANAD LOCAL SIGHTSEEING - ANANTHANATHA SWAMI TEMPLE, MUTHANGA WILDLIFE SANCTUARY, BANASURA DAM, BEGUR WILDLIFE SANCTUARY, CHEMBRA PEAK, EDAKKAL CAVES, MEENMUTTY FALLS, KANTHAPARA FALLS, SOOCHIPARA FALLS&lt;/p&gt;
 &lt;/div&gt;
 &lt;div&gt;
 &lt;h5&gt;Day 5&lt;/h5&gt;
-&lt;p&gt;LOCAL SIGHTSEEING AND BACK TO COIMBATORE / MYSORE DROP&lt;/p&gt;
+&lt;p&gt;AFTER LOCAL SIGHT SEEING, WAYNAD TO CALICUT / MYSORE&lt;/p&gt;
 &lt;/div&gt;</t>
   </si>
   <si>
     <t>&lt;div&gt;
 &lt;h5&gt;Day 1&lt;/h5&gt;
-&lt;p&gt;FROM MYSORE TO OOTY , BOTANICAL GARDEN, OOTY LAKE ( BOAT HOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN&lt;/p&gt;
+&lt;p&gt;FROM BANGALORE TO OOTY ,  ON THE WAY MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING. AFTER CHECK IN THE HOTEL AND MOVE TO LOCAL SIGHSEEING (IF TIME PERMITS) LIKE BOTANICAL GARDEN, OOTY LAKE ( BOAT HOUSE). THREAD GARDEN, CHILDREN PARK, BOTANICAL GARDEN, NIGHT STAY IN OOTY HOTEL&lt;/p&gt;
 &lt;/div&gt;
 &lt;div&gt;
 &lt;h5&gt;Day 2&lt;/h5&gt;
-&lt;p&gt;NILGIRI MOUNTAIN RAILWAY.KETTI VALLEY VIEW, SIMS PARK, DOLPHIN'S NOSE, LAMB'S ROCK,  WAX MUSEUM &amp; BACK TO OOTY&lt;/p&gt;
+&lt;p&gt;OOTY TO DODABETTA PEAK, TEA FACTORY, COONOOR LOCAL SIGHTSEEING - NILGIRI MOUNTAIN RAILWAY. KETTI VALLEY VIEW, SIMS PARK, DOLPHIN'S NOSE, LAMB'S ROCK,WAX MUSEUM &amp; BACK TO OOTY &amp; NIGHT STAY IN OOTY HOTEL&lt;/p&gt;
 &lt;/div&gt;
 &lt;div&gt;
 &lt;h5&gt;Day 3&lt;/h5&gt;
-&lt;p&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), &amp; BACK TO OOTY&lt;/p&gt;
+&lt;p&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING) AND PROCEED TO WAYANAD &amp; NIGHT STAY IN WAYANAD HOTEL&lt;/p&gt;
 &lt;/div&gt;
 &lt;div&gt;
 &lt;h5&gt;Day 4&lt;/h5&gt;
-&lt;p&gt;OOTY TO AVALANCHI, TRIBAL MUSEUM, EMERALD LAKE AND BACK TO OOTY&lt;/p&gt;
+&lt;p&gt;WAYANAD LOCAL SIGHTSEEING - ANANTHANATHA SWAMI TEMPLE, MUTHANGA WILDLIFE SANCTUARY, BANASURA DAM, BEGUR WILDLIFE SANCTUARY, CHEMBRA PEAK, EDAKKAL CAVES, MEENMUTTY FALLS, KANTHAPARA FALLS, SOOCHIPARA FALLS&lt;/p&gt;
 &lt;/div&gt;
 &lt;div&gt;
 &lt;h5&gt;Day 5&lt;/h5&gt;
-&lt;p&gt;AFTER CHECKOUT THE HOTEL , OOTY TO MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING AND PROCEEDING TO MYSORE&lt;/p&gt;
+&lt;p&gt;AFTER LOCAL SIGHT SEEING, &amp; WAYNAD TO MYSORE / BANGALORE DROP&lt;/p&gt;
 &lt;/div&gt;</t>
   </si>
   <si>
     <t>&lt;div&gt;
 &lt;h5&gt;Day 1&lt;/h5&gt;
-&lt;p&gt;MYSORE TO OOTY , MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING, PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODAY SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING),  &amp; TO OOTY&lt;/p&gt;
+&lt;p&gt;BANGALORE TO MYSORE, LOCALSIGHTSEEING LIKE MYSORE PALACE, BRINDAVAN GARDENS, CHAMUNDI HILLS, MYSORE ZOO, LALITA MAHAL PALACE, RAIL MUSEUM, SRI RANGANATHA SWAMY TEMPLE, DATTA PEETHAM, KARANJI LAKE NATURE PARK, TIPU SULTAN'S PALACE. NIGHT STAY IN MYSORE&lt;/p&gt;
 &lt;/div&gt;
 &lt;div&gt;
 &lt;h5&gt;Day 2&lt;/h5&gt;
-&lt;p&gt;OOTY LOCAL SIGHTSEEING CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;/p&gt;
+&lt;p&gt;FROM MYSORE TO OOTY, ON THE WAY  PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), TO OOTY&lt;/p&gt;
 &lt;/div&gt;
 &lt;div&gt;
 &lt;h5&gt;Day 3&lt;/h5&gt;
-&lt;p&gt;OOTY TO MUNNAR, ON THE WAY COONOOR LOCAL SIGHTSEEING KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK AND PROCEEDING TO MUNNAR&lt;/p&gt;
+&lt;p&gt;OOTY TO  OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;/p&gt;
 &lt;/div&gt;
 &lt;div&gt;
 &lt;h5&gt;Day 4&lt;/h5&gt;
-&lt;p&gt;MUNNAR &amp; LOCAL SIGHTSEEING CHINNAR WILDLIFE SANCTUARY, RAJAMALAI WILDLIFE SANCTUARY, POWER HOUSE FALLS, ECHO POINT, ELEPHANT LAKE, ROSE GARDEN, MATTUPETTY DAM, TOP STATION, TATA TEA MUSEUM&lt;/p&gt;
+&lt;p&gt;OOTY TO KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, NILGIRI MOUNTAIN RAILWAY AND BACK TO OOTY&lt;/p&gt;
 &lt;/div&gt;
 &lt;div&gt;
 &lt;h5&gt;Day 5&lt;/h5&gt;
-&lt;p&gt;MUNNAR LOCAL SIGHTSEEING &amp; BACK TO COIMBATORE&lt;/p&gt;
+&lt;p&gt;OOTY TO MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING, AND PROCEED TO MYSORE / BANGALORE DROP&lt;/p&gt;
 &lt;/div&gt;</t>
   </si>
   <si>
     <t>&lt;div&gt;
 &lt;h5&gt;Day 1&lt;/h5&gt;
-&lt;p&gt;COIMBATORE TO OOTY , OOTY LOCAL SIGHTSEEING CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;/p&gt;
+&lt;p&gt;FROM BANGALORE TO OOTY, ON THE WAY MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING, PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), TO OOTY&lt;/p&gt;
 &lt;/div&gt;
 &lt;div&gt;
 &lt;h5&gt;Day 2&lt;/h5&gt;
-&lt;p&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; BACK TO OOTY&lt;/p&gt;
+&lt;p&gt;OOTY TO  OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM, KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, NILGIRI MOUNTAIN RAILWAY AND BACK TO OOTY&lt;/p&gt;
 &lt;/div&gt;
 &lt;div&gt;
 &lt;h5&gt;Day 3&lt;/h5&gt;
-&lt;p&gt;OOTY TO KODAIKANAL, ON THE WAY COONOOR LOCAL SIGHTSEEING KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK AND PROCEEDING TO KODAIKANAL&lt;/p&gt;
-&lt;/div&gt;
-&lt;div&gt;
-&lt;h5&gt;Day 4&lt;/h5&gt;
-&lt;p&gt;KODAIKANAL LOCAL SIGHTSEEING KODAIKANAL LAKE, COAKER'S WALK, PILLAR ROCKS, BRYANT PARK, GREEN VALLEY VIEW, GUNA CAVE, BERIJAM LAKE IS ABOUT 20 - 25 KMS FROM KODAIKANAL INSIDE FOREST AREA, DOLPHIN'S NOSE, BEAR SHOLA FALLS,  &amp; BACK TO HOTEL&lt;/p&gt;
-&lt;/div&gt;
-&lt;div&gt;
-&lt;h5&gt;Day 5&lt;/h5&gt;
-&lt;p&gt;KURINJI ANDAVAR TEMPLE, SHENBAGANUR MUSEUM. SILVER CASCADE FALLS &amp; BACK TO COIMBATORE&lt;/p&gt;
-&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div&gt;
-&lt;h5&gt;Day 1&lt;/h5&gt;
-&lt;p&gt;COIMBATORE TO OOTY , OOTY LOCAL SIGHTSEEING CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;/p&gt;
-&lt;/div&gt;
-&lt;div&gt;
-&lt;h5&gt;Day 2&lt;/h5&gt;
-&lt;p&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; BACK TO OOTY&lt;/p&gt;
-&lt;/div&gt;
-&lt;div&gt;
-&lt;h5&gt;Day 3&lt;/h5&gt;
-&lt;p&gt;OOTY TO KODAIKANAL, ON THE WAY COONOOR LOCAL SIGHTSEEING KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, TEA GARDENS, SIMS PARK AND PROCEEDING TO KODAIKANAL&lt;/p&gt;
-&lt;/div&gt;
-&lt;div&gt;
-&lt;h5&gt;Day 4&lt;/h5&gt;
-&lt;p&gt;Kodaikanal local sightseeing Kodaikanal Lake, Coaker's Walk, Pillar Rocks, Bryant Park, Green Valley View, Guna Cave, Dolphin's Nose, Kurinji Andavar Temple, Shenbaganur Museum. Silver Cascade Falls &amp; back to Hotel.&lt;/p&gt;
-&lt;/div&gt;
-&lt;div&gt;
-&lt;h5&gt;Day 5&lt;/h5&gt;
-&lt;p&gt;KODAIKANAL TO MADURAI &amp; LOCAL SIGHTSEEING - SREE MEENAKSHI TEMPLE, THIRUMALAI NAYAK PALACE, GANDHI MUSEUM &amp; FINAL DROP AT MADURAI / COIMBATORE&lt;/p&gt;
-&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div&gt;
-&lt;h5&gt;Day 1&lt;/h5&gt;
-&lt;p&gt;COIMBATORE TO OOTY , OOTY LOCAL SIGHTSEEING CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;/p&gt;
-&lt;/div&gt;
-&lt;div&gt;
-&lt;h5&gt;Day 2&lt;/h5&gt;
-&lt;p&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; BACK TO OOTY&lt;/p&gt;
-&lt;/div&gt;
-&lt;div&gt;
-&lt;h5&gt;Day 3&lt;/h5&gt;
-&lt;p&gt;OOTY TO MUNNAR, ON THE WAY COONOOR LOCAL SIGHTSEEING KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK AND PROCEEDING TO MUNNAR&lt;/p&gt;
-&lt;/div&gt;
-&lt;div&gt;
-&lt;h5&gt;Day 4&lt;/h5&gt;
-&lt;p&gt;MUNNAR &amp; LOCAL SIGHTSEEING CHINNAR WILDLIFE SANCTUARY, RAJAMALAI WILDLIFE SANCTUARY, POWER HOUSE FALLS, ECHO POINT, ELEPHANT LAKE, ROSE GARDEN, MATTUPETTY DAM, TOP STATION, TATA TEA MUSEUM&lt;/p&gt;
-&lt;/div&gt;
-&lt;div&gt;
-&lt;h5&gt;Day 5&lt;/h5&gt;
-&lt;p&gt;MUNNAR LOCAL SIGHTSEEING &amp; BACK TO COIMBATORE&lt;/p&gt;
-&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div&gt;
-&lt;h5&gt;Day 1&lt;/h5&gt;
-&lt;p&gt;FROM MYSORE TO OOTY, ON THE WAY MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING, PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), TO OOTY&lt;/p&gt;
-&lt;/div&gt;
-&lt;div&gt;
-&lt;h5&gt;Day 2&lt;/h5&gt;
-&lt;p&gt;OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;/p&gt;
-&lt;/div&gt;
-&lt;div&gt;
-&lt;h5&gt;Day 3&lt;/h5&gt;
-&lt;p&gt;OOTY TO  COONOOR NILGIRI MOUNTAIN RAILWAY. KETTI VALLEY VIEW, SIMS PARK, DOLPHIN'S NOSE, LAMB'S ROCK &amp; TO COORG&lt;/p&gt;
-&lt;/div&gt;
-&lt;div&gt;
-&lt;h5&gt;Day 4&lt;/h5&gt;
-&lt;p&gt;COORG LOCAL SIGHTSEEING - ABBI FALLS, BRAHMAGIRI PEAK, IRUPPU FALLS, KAVERI NISARGADHAMA, MADIKERI FORT, TALAKAVERI&lt;/p&gt;
-&lt;/div&gt;
-&lt;div&gt;
-&lt;h5&gt;Day 5&lt;/h5&gt;
-&lt;p&gt;LOCAL SIGHTSEEING AND BACK TO MYSORE&lt;/p&gt;
-&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div&gt;
-&lt;h5&gt;Day 1&lt;/h5&gt;
-&lt;p&gt;MYSORE TO OOTY, ON THE WAY  MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING, PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), AND TO OOTY&lt;/p&gt;
-&lt;/div&gt;
-&lt;div&gt;
-&lt;h5&gt;Day 2&lt;/h5&gt;
-&lt;p&gt;OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN.COONOOR MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, WAX MUSEUM, KETTI VALLEY VIEW, NILGIRI MOUNTAIN RAILWAY AND TO OOTY&lt;/p&gt;
-&lt;/div&gt;
-&lt;div&gt;
-&lt;h5&gt;Day 3&lt;/h5&gt;
-&lt;p&gt;OOTY TO MYSORE LOCAL SIGHTSEEING, MYSORE PALACE, BRINDAVAN GARDENS, CHAMUNDI HILLS, MYSORE ZOO, AND PROCEEDING TO COORG&lt;/p&gt;
+&lt;p&gt;OOTY TO MYSORE LOCAL SIGHTSEEING, MYSORE PALACE, BRINDAVAN GARDENS, CHAMUNDI HILLS, MYSORE ZOO, AND PROCEEDING TO COORG&lt;/p&gt;
 &lt;/div&gt;
 &lt;div&gt;
 &lt;h5&gt;Day 4&lt;/h5&gt;
@@ -402,94 +467,6 @@
   <si>
     <t>&lt;div&gt;
 &lt;h5&gt;Day 1&lt;/h5&gt;
-&lt;p&gt;MYSORE TO OOTY, ON THE WAY  MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING,  OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM&lt;/p&gt;
-&lt;/div&gt;
-&lt;div&gt;
-&lt;h5&gt;Day 2&lt;/h5&gt;
-&lt;p&gt;DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN.COONOOR MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEAGARDENS, SIMS PARK, WAX MUSEUM, KETTI VALLEY VIEW, NILGIRIS MOUNTAIN RAILWAY AND TO OOTY&lt;/p&gt;
-&lt;/div&gt;
-&lt;div&gt;
-&lt;h5&gt;Day 3&lt;/h5&gt;
-&lt;p&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), &amp; TO WAYANAD&lt;/p&gt;
-&lt;/div&gt;
-&lt;div&gt;
-&lt;h5&gt;Day 4&lt;/h5&gt;
-&lt;p&gt;WAYANAD LOCAL SIGHTSEEING - ANANTHANATHA SWAMI TEMPLE, MUTHANGA WILDLIFE SANCTUARY, BANASURA DAM, BEGUR WILDLIFE SANCTUARY, CHEMBRA PEAK, EDAKKAL CAVES, MEENMUTTY FALLS, KANTHAPARA FALLS, SOOCHIPARA FALLS&lt;/p&gt;
-&lt;/div&gt;
-&lt;div&gt;
-&lt;h5&gt;Day 5&lt;/h5&gt;
-&lt;p&gt;AFTER LOCAL SIGHT SEEING, WAYNAD TO CALICUT / MYSORE&lt;/p&gt;
-&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div&gt;
-&lt;h5&gt;Day 1&lt;/h5&gt;
-&lt;p&gt;FROM BANGALORE TO OOTY ,  ON THE WAY MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING. AFTER CHECK IN THE HOTEL AND MOVE TO LOCAL SIGHSEEING (IF TIME PERMITS) LIKE BOTANICAL GARDEN, OOTY LAKE ( BOAT HOUSE). THREAD GARDEN, CHILDREN PARK, BOTANICAL GARDEN, NIGHT STAY IN OOTY HOTEL&lt;/p&gt;
-&lt;/div&gt;
-&lt;div&gt;
-&lt;h5&gt;Day 2&lt;/h5&gt;
-&lt;p&gt;OOTY TO DODABETTA PEAK, TEA FACTORY, COONOOR LOCAL SIGHTSEEING - NILGIRI MOUNTAIN RAILWAY. KETTI VALLEY VIEW, SIMS PARK, DOLPHIN'S NOSE, LAMB'S ROCK,WAX MUSEUM &amp; BACK TO OOTY &amp; NIGHT STAY IN OOTY HOTEL&lt;/p&gt;
-&lt;/div&gt;
-&lt;div&gt;
-&lt;h5&gt;Day 3&lt;/h5&gt;
-&lt;p&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING) AND PROCEED TO WAYANAD &amp; NIGHT STAY IN WAYANAD HOTEL&lt;/p&gt;
-&lt;/div&gt;
-&lt;div&gt;
-&lt;h5&gt;Day 4&lt;/h5&gt;
-&lt;p&gt;WAYANAD LOCAL SIGHTSEEING - ANANTHANATHA SWAMI TEMPLE, MUTHANGA WILDLIFE SANCTUARY, BANASURA DAM, BEGUR WILDLIFE SANCTUARY, CHEMBRA PEAK, EDAKKAL CAVES, MEENMUTTY FALLS, KANTHAPARA FALLS, SOOCHIPARA FALLS&lt;/p&gt;
-&lt;/div&gt;
-&lt;div&gt;
-&lt;h5&gt;Day 5&lt;/h5&gt;
-&lt;p&gt;AFTER LOCAL SIGHT SEEING, &amp; WAYNAD TO MYSORE / BANGALORE DROP&lt;/p&gt;
-&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div&gt;
-&lt;h5&gt;Day 1&lt;/h5&gt;
-&lt;p&gt;BANGALORE TO MYSORE, LOCALSIGHTSEEING LIKE MYSORE PALACE, BRINDAVAN GARDENS, CHAMUNDI HILLS, MYSORE ZOO, LALITA MAHAL PALACE, RAIL MUSEUM, SRI RANGANATHA SWAMY TEMPLE, DATTA PEETHAM, KARANJI LAKE NATURE PARK, TIPU SULTAN'S PALACE. NIGHT STAY IN MYSORE&lt;/p&gt;
-&lt;/div&gt;
-&lt;div&gt;
-&lt;h5&gt;Day 2&lt;/h5&gt;
-&lt;p&gt;FROM MYSORE TO OOTY, ON THE WAY  PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), TO OOTY&lt;/p&gt;
-&lt;/div&gt;
-&lt;div&gt;
-&lt;h5&gt;Day 3&lt;/h5&gt;
-&lt;p&gt;OOTY TO  OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;/p&gt;
-&lt;/div&gt;
-&lt;div&gt;
-&lt;h5&gt;Day 4&lt;/h5&gt;
-&lt;p&gt;OOTY TO KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, NILGIRI MOUNTAIN RAILWAY AND BACK TO OOTY&lt;/p&gt;
-&lt;/div&gt;
-&lt;div&gt;
-&lt;h5&gt;Day 5&lt;/h5&gt;
-&lt;p&gt;OOTY TO MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING, AND PROCEED TO MYSORE / BANGALORE DROP&lt;/p&gt;
-&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div&gt;
-&lt;h5&gt;Day 1&lt;/h5&gt;
-&lt;p&gt;FROM BANGALORE TO OOTY, ON THE WAY MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING, PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), TO OOTY&lt;/p&gt;
-&lt;/div&gt;
-&lt;div&gt;
-&lt;h5&gt;Day 2&lt;/h5&gt;
-&lt;p&gt;OOTY TO  OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM, KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, NILGIRI MOUNTAIN RAILWAY AND BACK TO OOTY&lt;/p&gt;
-&lt;/div&gt;
-&lt;div&gt;
-&lt;h5&gt;Day 3&lt;/h5&gt;
-&lt;p&gt;OOTY TO MYSORE LOCAL SIGHTSEEING, MYSORE PALACE, BRINDAVAN GARDENS, CHAMUNDI HILLS, MYSORE ZOO, AND PROCEEDING TO COORG&lt;/p&gt;
-&lt;/div&gt;
-&lt;div&gt;
-&lt;h5&gt;Day 4&lt;/h5&gt;
-&lt;p&gt;COORG LOCAL SIGHTSEEING, ABBI FALLS, BRAHMAGIRI PEAK, IRUPPU FALLS, KAVERI NISARGADHAMA, MADIKERI FORT, TALAKAVERI.AND BACK TO HOTEL&lt;/p&gt;
-&lt;/div&gt;
-&lt;div&gt;
-&lt;h5&gt;Day 5&lt;/h5&gt;
-&lt;p&gt;LOCAL SIGHTSEEING AND PROCEEDING TO BANGALORE CITY OR AIRPORT DROP&lt;/p&gt;
-&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div&gt;
-&lt;h5&gt;Day 1&lt;/h5&gt;
 &lt;p&gt;FROM COIMBATORE TO OOTY , BOTANICAL GARDEN, OOTY LAKE ( BOAT HOUSE)&lt;/p&gt;
 &lt;/div&gt;
 &lt;div&gt;
@@ -661,6 +638,28 @@
 &lt;div&gt;
 &lt;h5&gt;Day 5&lt;/h5&gt;
 &lt;p&gt;SRI RANGANATHA SWAMY TEMPLE,  TIPU SULTAN'S PALACE AND BACK TO COIMBATORE&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;COIMBATORE TO COONOOR MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, WAX MUSEUM, KETTI VALLEY VIEW, NILGIRI MOUNTAIN RAILWAY AND TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;OOTY CENTENARY ROSE GARDEN, LAKE (BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN. PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODAY SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), AND BACK TO HOTEL&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;OOTY TO  MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp;  TO MYSORE LOCAL SIGHTSEEING, MYSORE PALACE, BRINDAVAN GARDENS, CHAMUNDI HILLS, MYSORE ZOO, AND PROCEEDING TO COORG&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;COORG LOCAL SIGHTSEEING, ABBI FALLS, BRAHMAGIRI PEAK, IRUPPU FALLS, KAVERI NISARGADHAMA, MADIKERI FORT, TALAKAVERI AND BACK TO HOTEL&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;LOCAL SIGHTSEEING AND PROCEEDING TO BANGALORE CITY OR AIRPORT DROP&lt;/p&gt;
 &lt;/div&gt;</t>
   </si>
 </sst>
@@ -1408,7 +1407,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -1561,7 +1560,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -1714,7 +1713,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -1867,7 +1866,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -2020,7 +2019,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -2173,7 +2172,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -2340,7 +2339,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -2507,7 +2506,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -2674,7 +2673,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -2841,7 +2840,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -2986,8 +2985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0889927-DECD-4CBE-A9D0-DB4AD3692670}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3008,7 +3007,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -3176,7 +3175,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -3343,7 +3342,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -3488,7 +3487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BA4AC1-66D9-456E-83CA-2AD2F25EAAB4}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -3510,7 +3509,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -3677,7 +3676,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -3830,7 +3829,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -3983,7 +3982,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -4150,7 +4149,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -4345,7 +4344,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -4513,7 +4512,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -4680,7 +4679,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
